--- a/docs/5管理/人员信息.xlsx
+++ b/docs/5管理/人员信息.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2月休假情况" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t xml:space="preserve">许兆平 </t>
   </si>
@@ -68,7 +69,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>th-wu@zakj.info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海效吉软件有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/31-3/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -367,6 +389,77 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4086225" y="3771900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2" descr="D:\Program Files (x86)\Tencent\QQ\mydata\23281190\Image\Group\5PX(NH{@LSVYy1LX@ND96.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2419350" y="3886200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3" descr="D:\Program Files (x86)\Tencent\QQ\mydata\23281190\Image\Group\5PX(NH{@LSVYy1LX@ND96.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2419350" y="2971800"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -667,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -699,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5">
@@ -739,10 +832,11 @@
     <hyperlink ref="B7" r:id="rId2"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1053,4 +1147,115 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="23.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/5管理/人员信息.xlsx
+++ b/docs/5管理/人员信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:AA8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="12"/>
@@ -1102,7 +1102,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="10"/>
+      <c r="W7" s="12"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
